--- a/文档/文档/魔物设定.xlsx
+++ b/文档/文档/魔物设定.xlsx
@@ -2432,16 +2432,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1238138</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1133342</xdr:rowOff>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666638</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>542792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2458,7 +2458,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="33594675"/>
+          <a:off x="14801850" y="34213800"/>
           <a:ext cx="895238" cy="1066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
